--- a/poc/social-buzz/doc/성별연령대별시청률_0905-0911.xlsx
+++ b/poc/social-buzz/doc/성별연령대별시청률_0905-0911.xlsx
@@ -9,7 +9,11 @@
   <sheets>
     <sheet name="tv_program_watch_rate_gender_ag" sheetId="1" r:id="rId1"/>
     <sheet name="program" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tv_program_watch_rate_gender_ag!$A$1:$H$141</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -1376,7 +1380,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5055,6 +5059,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H141"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5410,4 +5415,17 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>